--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Структура" sheetId="2" r:id="rId1"/>
@@ -6978,7 +6978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -7209,8 +7209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:XFD439"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11348,26 +11348,28 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>1517</v>
+        <v>1391</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3" t="s">
-        <v>1650</v>
+        <v>1325</v>
       </c>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>1325</v>
+      </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -11376,7 +11378,7 @@
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3" t="s">
-        <v>1466</v>
+        <v>1650</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -11385,65 +11387,65 @@
         <v>1342</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>1392</v>
+        <v>1517</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3" t="s">
-        <v>1568</v>
+        <v>1466</v>
       </c>
       <c r="D163" s="3"/>
-      <c r="E163" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>1967</v>
-      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
       <c r="G163" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
-        <v>1685</v>
+        <v>1568</v>
       </c>
       <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="E164" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>1967</v>
+      </c>
       <c r="G164" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -11452,7 +11454,7 @@
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3" t="s">
-        <v>1651</v>
+        <v>1685</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -11461,13 +11463,13 @@
         <v>1342</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -11476,7 +11478,7 @@
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3" t="s">
-        <v>1588</v>
+        <v>1651</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -11485,13 +11487,13 @@
         <v>1342</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -11500,74 +11502,72 @@
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3" t="s">
-        <v>1979</v>
+        <v>1588</v>
       </c>
       <c r="D167" s="3"/>
-      <c r="E167" s="3" t="s">
-        <v>1916</v>
-      </c>
+      <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3" t="s">
-        <v>1591</v>
+        <v>1979</v>
       </c>
       <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="E168" s="3" t="s">
+        <v>1916</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1473</v>
+        <v>1394</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3" t="s">
-        <v>1325</v>
+        <v>1591</v>
       </c>
       <c r="D169" s="3"/>
-      <c r="E169" s="3" t="s">
-        <v>1755</v>
-      </c>
+      <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -11576,31 +11576,33 @@
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3" t="s">
-        <v>1573</v>
+        <v>1325</v>
       </c>
       <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
+      <c r="E170" s="3" t="s">
+        <v>1755</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>1395</v>
+        <v>1473</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3" t="s">
-        <v>1693</v>
+        <v>1573</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -11609,13 +11611,13 @@
         <v>1342</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -11624,50 +11626,48 @@
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="3" t="s">
-        <v>1917</v>
-      </c>
+        <v>1693</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D173" s="3"/>
+        <v>1592</v>
+      </c>
+      <c r="D173" s="9"/>
       <c r="E173" s="3" t="s">
-        <v>1835</v>
+        <v>1917</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -11678,24 +11678,22 @@
       <c r="C174" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>1704</v>
-      </c>
+      <c r="D174" s="3"/>
       <c r="E174" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -11707,23 +11705,23 @@
         <v>1325</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>1715</v>
+        <v>1704</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>1918</v>
+        <v>1836</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -11735,47 +11733,51 @@
         <v>1325</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>1837</v>
+        <v>1918</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1518</v>
+        <v>1396</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>1837</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -11784,106 +11786,104 @@
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3" t="s">
-        <v>1325</v>
+        <v>1685</v>
       </c>
       <c r="D178" s="3"/>
-      <c r="E178" s="3" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>1977</v>
-      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
       <c r="G178" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1397</v>
+        <v>1518</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>1716</v>
-      </c>
+      <c r="D179" s="3"/>
       <c r="E179" s="3" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F179" s="3"/>
+        <v>1838</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>1977</v>
+      </c>
       <c r="G179" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>1482</v>
+        <v>1397</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D180" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>1716</v>
+      </c>
       <c r="E180" s="3" t="s">
-        <v>1798</v>
+        <v>1919</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1398</v>
+        <v>1482</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3" t="s">
-        <v>1593</v>
+        <v>1652</v>
       </c>
       <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3" t="s">
-        <v>1986</v>
-      </c>
+      <c r="E181" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F181" s="3"/>
       <c r="G181" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -11892,81 +11892,83 @@
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>1986</v>
+      </c>
       <c r="G182" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>1519</v>
+        <v>1398</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3" t="s">
-        <v>1325</v>
+        <v>1594</v>
       </c>
       <c r="D183" s="3"/>
-      <c r="E183" s="3" t="s">
-        <v>1920</v>
-      </c>
+      <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>1316</v>
+        <v>1057</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3" t="s">
-        <v>1595</v>
+        <v>1325</v>
       </c>
       <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
+      <c r="E184" s="3" t="s">
+        <v>1920</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>1058</v>
+        <v>1316</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3" t="s">
-        <v>1694</v>
+        <v>1595</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -11975,22 +11977,22 @@
         <v>1342</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1399</v>
+        <v>1521</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3" t="s">
-        <v>1584</v>
+        <v>1694</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -11999,13 +12001,13 @@
         <v>1342</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -12014,24 +12016,22 @@
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3" t="s">
-        <v>1325</v>
+        <v>1584</v>
       </c>
       <c r="D187" s="3"/>
-      <c r="E187" s="3" t="s">
-        <v>1799</v>
-      </c>
+      <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -12044,25 +12044,25 @@
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3" t="s">
-        <v>1756</v>
+        <v>1799</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>1483</v>
+        <v>1399</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3" t="s">
@@ -12070,25 +12070,25 @@
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3" t="s">
-        <v>1921</v>
+        <v>1756</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>1522</v>
+        <v>1483</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3" t="s">
@@ -12096,20 +12096,20 @@
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3" t="s">
-        <v>1839</v>
+        <v>1921</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -12122,20 +12122,20 @@
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -12144,50 +12144,50 @@
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3" t="s">
-        <v>1596</v>
+        <v>1325</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>1400</v>
+        <v>1522</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3" t="s">
-        <v>1325</v>
+        <v>1596</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3" t="s">
-        <v>1800</v>
+        <v>1841</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -12200,20 +12200,20 @@
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3" t="s">
-        <v>1842</v>
+        <v>1800</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -12222,22 +12222,24 @@
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
-        <v>1653</v>
+        <v>1325</v>
       </c>
       <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
+      <c r="E195" s="3" t="s">
+        <v>1842</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -12246,7 +12248,7 @@
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -12255,13 +12257,13 @@
         <v>1342</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -12270,7 +12272,7 @@
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3" t="s">
-        <v>1597</v>
+        <v>1654</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -12279,13 +12281,13 @@
         <v>1342</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -12294,24 +12296,22 @@
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D198" s="9"/>
-      <c r="E198" s="3" t="s">
-        <v>1886</v>
-      </c>
+        <v>1597</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -12320,24 +12320,24 @@
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D199" s="3"/>
+        <v>1409</v>
+      </c>
+      <c r="D199" s="9"/>
       <c r="E199" s="3" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -12346,22 +12346,24 @@
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3" t="s">
-        <v>1598</v>
+        <v>1325</v>
       </c>
       <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
+      <c r="E200" s="3" t="s">
+        <v>1887</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -12370,7 +12372,7 @@
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3" t="s">
-        <v>1655</v>
+        <v>1598</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -12379,13 +12381,13 @@
         <v>1342</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -12394,26 +12396,22 @@
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3" t="s">
-        <v>1984</v>
+        <v>1655</v>
       </c>
       <c r="D202" s="3"/>
-      <c r="E202" s="3" t="s">
-        <v>1922</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>1962</v>
-      </c>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
       <c r="G202" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -12422,24 +12420,26 @@
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3" t="s">
-        <v>1325</v>
+        <v>1984</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F203" s="3"/>
+        <v>1922</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>1962</v>
+      </c>
       <c r="G203" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -12452,20 +12452,20 @@
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3" t="s">
-        <v>1923</v>
+        <v>1843</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -12478,20 +12478,20 @@
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3" t="s">
-        <v>1801</v>
+        <v>1923</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -12500,22 +12500,24 @@
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3" t="s">
-        <v>1656</v>
+        <v>1325</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
+      <c r="E206" s="3" t="s">
+        <v>1801</v>
+      </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -12523,25 +12525,23 @@
         <v>1400</v>
       </c>
       <c r="B207" s="3"/>
-      <c r="C207" s="17"/>
-      <c r="D207" s="3" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>1844</v>
-      </c>
+      <c r="C207" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -12549,23 +12549,25 @@
         <v>1400</v>
       </c>
       <c r="B208" s="3"/>
-      <c r="C208" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>1844</v>
+      </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -12574,24 +12576,22 @@
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3" t="s">
-        <v>1599</v>
+        <v>1658</v>
       </c>
       <c r="D209" s="3"/>
-      <c r="E209" s="3" t="s">
-        <v>1922</v>
-      </c>
+      <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -12600,57 +12600,59 @@
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3" t="s">
-        <v>1325</v>
+        <v>1599</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3" t="s">
-        <v>1600</v>
+        <v>1325</v>
       </c>
       <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
+      <c r="E211" s="3" t="s">
+        <v>1924</v>
+      </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -12659,22 +12661,22 @@
         <v>1342</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -12683,13 +12685,13 @@
         <v>1342</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -12698,7 +12700,7 @@
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -12707,13 +12709,13 @@
         <v>1342</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -12722,7 +12724,7 @@
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3" t="s">
-        <v>1659</v>
+        <v>1603</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -12731,13 +12733,13 @@
         <v>1342</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -12746,57 +12748,57 @@
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3" t="s">
-        <v>1571</v>
+        <v>1659</v>
       </c>
       <c r="D216" s="3"/>
-      <c r="E216" s="3" t="s">
-        <v>1888</v>
-      </c>
+      <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
+      <c r="E217" s="3" t="s">
+        <v>1888</v>
+      </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>1523</v>
+        <v>1404</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3" t="s">
-        <v>1604</v>
+        <v>1563</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -12805,13 +12807,13 @@
         <v>1342</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -12820,100 +12822,100 @@
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3" t="s">
-        <v>1325</v>
+        <v>1604</v>
       </c>
       <c r="D219" s="3"/>
-      <c r="E219" s="3" t="s">
-        <v>1925</v>
-      </c>
+      <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>1405</v>
+        <v>1523</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D220" s="9"/>
+        <v>1325</v>
+      </c>
+      <c r="D220" s="3"/>
       <c r="E220" s="3" t="s">
-        <v>1757</v>
+        <v>1925</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>1976</v>
+        <v>1405</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3" t="s">
-        <v>1966</v>
-      </c>
+        <v>1651</v>
+      </c>
+      <c r="D221" s="9"/>
+      <c r="E221" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F221" s="3"/>
       <c r="G221" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>1406</v>
+        <v>1976</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3" t="s">
-        <v>1605</v>
+        <v>1325</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
+      <c r="F222" s="3" t="s">
+        <v>1966</v>
+      </c>
       <c r="G222" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -12922,7 +12924,7 @@
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3" t="s">
-        <v>1660</v>
+        <v>1605</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -12931,67 +12933,65 @@
         <v>1342</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>1524</v>
+        <v>1406</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3" t="s">
-        <v>1607</v>
+        <v>1660</v>
       </c>
       <c r="D224" s="3"/>
-      <c r="E224" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>1968</v>
-      </c>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
       <c r="G224" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>1407</v>
+        <v>1524</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3" t="s">
-        <v>1325</v>
+        <v>1607</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F225" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>1968</v>
+      </c>
       <c r="G225" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -13004,20 +13004,20 @@
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3" t="s">
-        <v>1985</v>
+        <v>1758</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -13026,31 +13026,33 @@
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3" t="s">
-        <v>1466</v>
+        <v>1325</v>
       </c>
       <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
+      <c r="E227" s="3" t="s">
+        <v>1985</v>
+      </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I227" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3" t="s">
-        <v>1661</v>
+        <v>1466</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -13059,13 +13061,13 @@
         <v>1342</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -13074,29 +13076,27 @@
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3" t="s">
-        <v>1325</v>
+        <v>1661</v>
       </c>
       <c r="D229" s="3"/>
-      <c r="E229" s="3" t="s">
-        <v>1926</v>
-      </c>
+      <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3" t="s">
@@ -13104,53 +13104,55 @@
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3" t="s">
-        <v>1845</v>
+        <v>1926</v>
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I230" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>1525</v>
+        <v>1409</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3" t="s">
-        <v>1662</v>
+        <v>1325</v>
       </c>
       <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
+      <c r="E231" s="3" t="s">
+        <v>1845</v>
+      </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I231" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>1410</v>
+        <v>1525</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3" t="s">
-        <v>1606</v>
+        <v>1662</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -13159,13 +13161,13 @@
         <v>1342</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -13174,57 +13176,57 @@
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3" t="s">
-        <v>1325</v>
+        <v>1606</v>
       </c>
       <c r="D233" s="3"/>
-      <c r="E233" s="3" t="s">
-        <v>1927</v>
-      </c>
+      <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3" t="s">
-        <v>1576</v>
+        <v>1325</v>
       </c>
       <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
+      <c r="E234" s="3" t="s">
+        <v>1927</v>
+      </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I234" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3" t="s">
-        <v>1683</v>
+        <v>1576</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -13233,13 +13235,13 @@
         <v>1342</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I235" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -13248,7 +13250,7 @@
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3" t="s">
-        <v>1607</v>
+        <v>1683</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -13257,41 +13259,37 @@
         <v>1342</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>1328</v>
-      </c>
+      <c r="B237" s="3"/>
       <c r="C237" s="3" t="s">
-        <v>1584</v>
+        <v>1607</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
-      <c r="F237" s="3" t="s">
-        <v>1961</v>
-      </c>
+      <c r="F237" s="3"/>
       <c r="G237" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I237" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -13302,48 +13300,52 @@
         <v>1328</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>1589</v>
+        <v>1584</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3" t="s">
-        <v>1982</v>
+        <v>1961</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="B239" s="3"/>
+      <c r="B239" s="3" t="s">
+        <v>1328</v>
+      </c>
       <c r="C239" s="3" t="s">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
+      <c r="F239" s="3" t="s">
+        <v>1982</v>
+      </c>
       <c r="G239" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -13352,7 +13354,7 @@
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -13361,22 +13363,22 @@
         <v>1342</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I240" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3" t="s">
-        <v>1563</v>
+        <v>1609</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -13385,13 +13387,13 @@
         <v>1342</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -13400,7 +13402,7 @@
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3" t="s">
-        <v>1683</v>
+        <v>1563</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -13409,22 +13411,22 @@
         <v>1342</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I242" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3" t="s">
-        <v>1577</v>
+        <v>1683</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -13433,22 +13435,22 @@
         <v>1342</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -13457,13 +13459,13 @@
         <v>1342</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -13472,26 +13474,22 @@
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>1759</v>
-      </c>
+        <v>1574</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>1336</v>
+        <v>482</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -13503,75 +13501,79 @@
         <v>1325</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>1928</v>
+        <v>1759</v>
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>485</v>
+        <v>1336</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>1526</v>
+        <v>1415</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D247" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>1718</v>
+      </c>
       <c r="E247" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>1969</v>
-      </c>
+        <v>1928</v>
+      </c>
+      <c r="F247" s="3"/>
       <c r="G247" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I247" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>1474</v>
+        <v>1526</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3" t="s">
-        <v>1695</v>
+        <v>1563</v>
       </c>
       <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
+      <c r="E248" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>1969</v>
+      </c>
       <c r="G248" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -13580,7 +13582,7 @@
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3" t="s">
-        <v>1610</v>
+        <v>1695</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -13589,22 +13591,22 @@
         <v>1342</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>1527</v>
+        <v>1474</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -13613,89 +13615,89 @@
         <v>1342</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>1416</v>
+        <v>1527</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3" t="s">
-        <v>1325</v>
+        <v>1611</v>
       </c>
       <c r="D251" s="3"/>
-      <c r="E251" s="3" t="s">
-        <v>1330</v>
-      </c>
+      <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>1560</v>
+        <v>1416</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3" t="s">
-        <v>1574</v>
+        <v>1325</v>
       </c>
       <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
+      <c r="E252" s="3" t="s">
+        <v>1330</v>
+      </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>1560</v>
+        <v>1528</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3" t="s">
-        <v>1571</v>
+        <v>1325</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3" t="s">
-        <v>1889</v>
+        <v>1325</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I253" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -13704,57 +13706,53 @@
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>1846</v>
-      </c>
+        <v>1574</v>
+      </c>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>1417</v>
+        <v>1560</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3" t="s">
-        <v>1325</v>
+        <v>1571</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3" t="s">
-        <v>1929</v>
+        <v>1889</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>1417</v>
+        <v>1560</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3" t="s">
@@ -13764,168 +13762,174 @@
         <v>1719</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>1760</v>
+        <v>1846</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I256" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>1529</v>
+        <v>1417</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3" t="s">
-        <v>1607</v>
+        <v>1325</v>
       </c>
       <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
+      <c r="E257" s="3" t="s">
+        <v>1929</v>
+      </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I257" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>1529</v>
+        <v>1417</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>1760</v>
+      </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3" t="s">
-        <v>1325</v>
+        <v>1607</v>
       </c>
       <c r="D259" s="3"/>
-      <c r="E259" s="3" t="s">
-        <v>1847</v>
-      </c>
+      <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>1475</v>
+        <v>1529</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3" t="s">
-        <v>1325</v>
+        <v>1696</v>
       </c>
       <c r="D260" s="3"/>
-      <c r="E260" s="3" t="s">
-        <v>1761</v>
-      </c>
+      <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3" t="s">
-        <v>1683</v>
+        <v>1325</v>
       </c>
       <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
+      <c r="E261" s="3" t="s">
+        <v>1847</v>
+      </c>
       <c r="F261" s="3"/>
       <c r="G261" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>1531</v>
+        <v>1475</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3" t="s">
-        <v>1612</v>
+        <v>1325</v>
       </c>
       <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
+      <c r="E262" s="3" t="s">
+        <v>1761</v>
+      </c>
       <c r="F262" s="3"/>
       <c r="G262" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I262" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -13934,24 +13938,22 @@
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3" t="s">
-        <v>1325</v>
+        <v>1683</v>
       </c>
       <c r="D263" s="3"/>
-      <c r="E263" s="3" t="s">
-        <v>1848</v>
-      </c>
+      <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I263" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -13960,7 +13962,7 @@
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3" t="s">
-        <v>1574</v>
+        <v>1612</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -13969,13 +13971,13 @@
         <v>1342</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -13988,20 +13990,20 @@
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I265" s="3" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -14010,24 +14012,22 @@
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3" t="s">
-        <v>1325</v>
+        <v>1574</v>
       </c>
       <c r="D266" s="3"/>
-      <c r="E266" s="3" t="s">
-        <v>1762</v>
-      </c>
+      <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I266" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -14036,81 +14036,85 @@
       </c>
       <c r="B267" s="3"/>
       <c r="C267" s="3" t="s">
-        <v>1571</v>
+        <v>1325</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3" t="s">
-        <v>1818</v>
+        <v>1849</v>
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>1418</v>
+        <v>1531</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3" t="s">
-        <v>1663</v>
+        <v>1325</v>
       </c>
       <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
+      <c r="E268" s="3" t="s">
+        <v>1762</v>
+      </c>
       <c r="F268" s="3"/>
       <c r="G268" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>1418</v>
+        <v>1531</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3" t="s">
-        <v>1664</v>
+        <v>1571</v>
       </c>
       <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
+      <c r="E269" s="3" t="s">
+        <v>1818</v>
+      </c>
       <c r="F269" s="3"/>
       <c r="G269" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I269" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -14119,22 +14123,22 @@
         <v>1342</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3" t="s">
-        <v>1613</v>
+        <v>1664</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -14143,152 +14147,150 @@
         <v>1342</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>1729</v>
-      </c>
+        <v>1665</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>1532</v>
+        <v>1419</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3" t="s">
-        <v>1325</v>
+        <v>1613</v>
       </c>
       <c r="D273" s="3"/>
-      <c r="E273" s="3" t="s">
-        <v>1850</v>
-      </c>
+      <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I273" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>1533</v>
+        <v>1420</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D274" s="3"/>
+      <c r="D274" s="3" t="s">
+        <v>1704</v>
+      </c>
       <c r="E274" s="3" t="s">
-        <v>1930</v>
+        <v>1729</v>
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3" t="s">
-        <v>1683</v>
+        <v>1325</v>
       </c>
       <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
+      <c r="E275" s="3" t="s">
+        <v>1850</v>
+      </c>
       <c r="F275" s="3"/>
       <c r="G275" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>1421</v>
+        <v>1533</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3" t="s">
-        <v>1697</v>
+        <v>1325</v>
       </c>
       <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
+      <c r="E276" s="3" t="s">
+        <v>1930</v>
+      </c>
       <c r="F276" s="3"/>
       <c r="G276" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>1327</v>
-      </c>
+        <v>1534</v>
+      </c>
+      <c r="B277" s="3"/>
       <c r="C277" s="3" t="s">
-        <v>1575</v>
+        <v>1683</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -14297,22 +14299,22 @@
         <v>1342</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>1535</v>
+        <v>1421</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -14321,48 +14323,48 @@
         <v>1342</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I278" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B279" s="3"/>
+        <v>1535</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>1327</v>
+      </c>
       <c r="C279" s="3" t="s">
-        <v>1325</v>
+        <v>1575</v>
       </c>
       <c r="D279" s="3"/>
-      <c r="E279" s="3" t="s">
-        <v>1458</v>
-      </c>
+      <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>1422</v>
+        <v>1535</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3" t="s">
-        <v>1614</v>
+        <v>1698</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -14371,18 +14373,18 @@
         <v>1342</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>1423</v>
+        <v>1536</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3" t="s">
@@ -14390,46 +14392,44 @@
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3" t="s">
-        <v>1763</v>
+        <v>1458</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3" t="s">
-        <v>1325</v>
+        <v>1614</v>
       </c>
       <c r="D282" s="3"/>
-      <c r="E282" s="3" t="s">
-        <v>1890</v>
-      </c>
+      <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -14442,20 +14442,20 @@
       </c>
       <c r="D283" s="3"/>
       <c r="E283" s="3" t="s">
-        <v>1891</v>
+        <v>1763</v>
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -14468,20 +14468,20 @@
       </c>
       <c r="D284" s="3"/>
       <c r="E284" s="3" t="s">
-        <v>1851</v>
+        <v>1890</v>
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -14494,20 +14494,20 @@
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="3" t="s">
-        <v>1852</v>
+        <v>1891</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -14520,20 +14520,20 @@
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3" t="s">
-        <v>1764</v>
+        <v>1851</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -14544,24 +14544,22 @@
       <c r="C287" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D287" s="3" t="s">
-        <v>1720</v>
-      </c>
+      <c r="D287" s="3"/>
       <c r="E287" s="3" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -14574,20 +14572,20 @@
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="3" t="s">
-        <v>1931</v>
+        <v>1764</v>
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -14599,23 +14597,23 @@
         <v>1325</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>1932</v>
+        <v>1853</v>
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I289" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -14628,53 +14626,53 @@
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3" t="s">
-        <v>1854</v>
+        <v>1931</v>
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I290" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>1537</v>
+        <v>1423</v>
       </c>
       <c r="B291" s="3"/>
       <c r="C291" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D291" s="3"/>
+      <c r="D291" s="3" t="s">
+        <v>1713</v>
+      </c>
       <c r="E291" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>1970</v>
-      </c>
+        <v>1932</v>
+      </c>
+      <c r="F291" s="3"/>
       <c r="G291" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I291" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B292" s="3"/>
       <c r="C292" s="3" t="s">
@@ -14682,79 +14680,83 @@
       </c>
       <c r="D292" s="3"/>
       <c r="E292" s="3" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B293" s="3"/>
       <c r="C293" s="3" t="s">
-        <v>1615</v>
+        <v>1325</v>
       </c>
       <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
+      <c r="E293" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>1970</v>
+      </c>
       <c r="G293" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>1538</v>
+        <v>1424</v>
       </c>
       <c r="B294" s="3"/>
       <c r="C294" s="3" t="s">
-        <v>1571</v>
+        <v>1325</v>
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="3" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B295" s="3"/>
       <c r="C295" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -14763,50 +14765,48 @@
         <v>1342</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>1425</v>
+        <v>1538</v>
       </c>
       <c r="B296" s="3"/>
       <c r="C296" s="3" t="s">
-        <v>1585</v>
+        <v>1571</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F296" s="3" t="s">
-        <v>1965</v>
-      </c>
+        <v>1856</v>
+      </c>
+      <c r="F296" s="3"/>
       <c r="G296" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>1426</v>
+        <v>1539</v>
       </c>
       <c r="B297" s="3"/>
       <c r="C297" s="3" t="s">
-        <v>1666</v>
+        <v>1616</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -14815,122 +14815,126 @@
         <v>1342</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B298" s="3"/>
       <c r="C298" s="3" t="s">
-        <v>1325</v>
+        <v>1585</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="F298" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>1965</v>
+      </c>
       <c r="G298" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H298" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I298" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B299" s="3"/>
       <c r="C299" s="3" t="s">
-        <v>1325</v>
+        <v>1666</v>
       </c>
       <c r="D299" s="3"/>
-      <c r="E299" s="3" t="s">
-        <v>1933</v>
-      </c>
+      <c r="E299" s="3"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>1476</v>
+        <v>1427</v>
       </c>
       <c r="B300" s="3"/>
       <c r="C300" s="3" t="s">
-        <v>1667</v>
+        <v>1325</v>
       </c>
       <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
+      <c r="E300" s="3" t="s">
+        <v>1765</v>
+      </c>
       <c r="F300" s="3"/>
       <c r="G300" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>1476</v>
+        <v>1427</v>
       </c>
       <c r="B301" s="3"/>
       <c r="C301" s="3" t="s">
-        <v>1668</v>
+        <v>1325</v>
       </c>
       <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
+      <c r="E301" s="3" t="s">
+        <v>1933</v>
+      </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>1428</v>
+        <v>1476</v>
       </c>
       <c r="B302" s="3"/>
       <c r="C302" s="3" t="s">
-        <v>1575</v>
+        <v>1667</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -14939,39 +14943,37 @@
         <v>1342</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>1428</v>
+        <v>1476</v>
       </c>
       <c r="B303" s="3"/>
       <c r="C303" s="3" t="s">
-        <v>1325</v>
+        <v>1668</v>
       </c>
       <c r="D303" s="3"/>
-      <c r="E303" s="3" t="s">
-        <v>1934</v>
-      </c>
+      <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -14980,29 +14982,27 @@
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3" t="s">
-        <v>1325</v>
+        <v>1575</v>
       </c>
       <c r="D304" s="3"/>
-      <c r="E304" s="3" t="s">
-        <v>1857</v>
-      </c>
+      <c r="E304" s="3"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B305" s="3"/>
       <c r="C305" s="3" t="s">
@@ -15010,44 +15010,46 @@
       </c>
       <c r="D305" s="3"/>
       <c r="E305" s="3" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B306" s="3"/>
       <c r="C306" s="3" t="s">
-        <v>1979</v>
+        <v>1325</v>
       </c>
       <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
+      <c r="E306" s="3" t="s">
+        <v>1857</v>
+      </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -15055,77 +15057,73 @@
         <v>1429</v>
       </c>
       <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
+      <c r="C307" s="3" t="s">
+        <v>1325</v>
+      </c>
       <c r="D307" s="3"/>
       <c r="E307" s="3" t="s">
-        <v>1766</v>
+        <v>1935</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>1540</v>
+        <v>1429</v>
       </c>
       <c r="B308" s="3"/>
       <c r="C308" s="3" t="s">
-        <v>1325</v>
+        <v>1979</v>
       </c>
       <c r="D308" s="3"/>
-      <c r="E308" s="3" t="s">
-        <v>1767</v>
-      </c>
+      <c r="E308" s="3"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1540</v>
+        <v>1429</v>
       </c>
       <c r="B309" s="3"/>
-      <c r="C309" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>1713</v>
-      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
       <c r="E309" s="3" t="s">
-        <v>1802</v>
+        <v>1766</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I309" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -15133,23 +15131,25 @@
         <v>1540</v>
       </c>
       <c r="B310" s="3"/>
-      <c r="C310" s="13"/>
+      <c r="C310" s="3" t="s">
+        <v>1325</v>
+      </c>
       <c r="D310" s="3"/>
       <c r="E310" s="3" t="s">
-        <v>1728</v>
+        <v>1767</v>
       </c>
       <c r="F310" s="3"/>
       <c r="G310" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -15161,23 +15161,23 @@
         <v>1325</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>1768</v>
+        <v>1802</v>
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -15185,25 +15185,23 @@
         <v>1540</v>
       </c>
       <c r="B312" s="3"/>
-      <c r="C312" s="3" t="s">
-        <v>1325</v>
-      </c>
+      <c r="C312" s="13"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3" t="s">
-        <v>1858</v>
+        <v>1728</v>
       </c>
       <c r="F312" s="3"/>
       <c r="G312" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -15212,22 +15210,26 @@
       </c>
       <c r="B313" s="3"/>
       <c r="C313" s="3" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>1768</v>
+      </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I313" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -15238,24 +15240,22 @@
       <c r="C314" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D314" s="3" t="s">
-        <v>1722</v>
-      </c>
+      <c r="D314" s="3"/>
       <c r="E314" s="3" t="s">
-        <v>1803</v>
+        <v>1858</v>
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -15264,7 +15264,7 @@
       </c>
       <c r="B315" s="3"/>
       <c r="C315" s="3" t="s">
-        <v>1617</v>
+        <v>1702</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -15273,13 +15273,13 @@
         <v>1342</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -15288,22 +15288,26 @@
       </c>
       <c r="B316" s="3"/>
       <c r="C316" s="3" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>1803</v>
+      </c>
       <c r="F316" s="3"/>
       <c r="G316" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -15312,26 +15316,22 @@
       </c>
       <c r="B317" s="3"/>
       <c r="C317" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>1859</v>
-      </c>
+        <v>1617</v>
+      </c>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3" t="s">
-        <v>1618</v>
+        <v>1669</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -15349,13 +15349,13 @@
         <v>1342</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -15367,23 +15367,23 @@
         <v>1325</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>1955</v>
+        <v>1723</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F319" s="3"/>
       <c r="G319" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -15392,26 +15392,22 @@
       </c>
       <c r="B320" s="3"/>
       <c r="C320" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>1760</v>
-      </c>
+        <v>1618</v>
+      </c>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -15420,76 +15416,80 @@
       </c>
       <c r="B321" s="3"/>
       <c r="C321" s="3" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D321" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>1955</v>
+      </c>
       <c r="E321" s="3" t="s">
-        <v>1892</v>
+        <v>1860</v>
       </c>
       <c r="F321" s="3"/>
       <c r="G321" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>1430</v>
+        <v>1540</v>
       </c>
       <c r="B322" s="3"/>
       <c r="C322" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D322" s="3"/>
+      <c r="D322" s="3" t="s">
+        <v>1706</v>
+      </c>
       <c r="E322" s="3" t="s">
-        <v>1804</v>
+        <v>1760</v>
       </c>
       <c r="F322" s="3"/>
       <c r="G322" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>1430</v>
+        <v>1540</v>
       </c>
       <c r="B323" s="3"/>
       <c r="C323" s="3" t="s">
-        <v>1571</v>
+        <v>1619</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" s="3" t="s">
-        <v>1805</v>
+        <v>1892</v>
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -15502,149 +15502,151 @@
       </c>
       <c r="D324" s="3"/>
       <c r="E324" s="3" t="s">
-        <v>1769</v>
+        <v>1804</v>
       </c>
       <c r="F324" s="3"/>
       <c r="G324" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B325" s="3"/>
       <c r="C325" s="3" t="s">
-        <v>1620</v>
+        <v>1571</v>
       </c>
       <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
+      <c r="E325" s="3" t="s">
+        <v>1805</v>
+      </c>
       <c r="F325" s="3"/>
       <c r="G325" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B326" s="3"/>
       <c r="C326" s="3" t="s">
-        <v>1621</v>
+        <v>1325</v>
       </c>
       <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
+      <c r="E326" s="3" t="s">
+        <v>1769</v>
+      </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B327" s="3"/>
       <c r="C327" s="3" t="s">
-        <v>1325</v>
+        <v>1620</v>
       </c>
       <c r="D327" s="3"/>
-      <c r="E327" s="3" t="s">
-        <v>1861</v>
-      </c>
+      <c r="E327" s="3"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="I327" s="3" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>1541</v>
+        <v>1431</v>
       </c>
       <c r="B328" s="3"/>
       <c r="C328" s="3" t="s">
-        <v>1325</v>
+        <v>1621</v>
       </c>
       <c r="D328" s="3"/>
-      <c r="E328" s="3" t="s">
-        <v>1936</v>
-      </c>
+      <c r="E328" s="3"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>1542</v>
+        <v>1432</v>
       </c>
       <c r="B329" s="3"/>
       <c r="C329" s="3" t="s">
-        <v>1622</v>
+        <v>1325</v>
       </c>
       <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
+      <c r="E329" s="3" t="s">
+        <v>1861</v>
+      </c>
       <c r="F329" s="3"/>
       <c r="G329" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>1434</v>
+        <v>1541</v>
       </c>
       <c r="B330" s="3"/>
       <c r="C330" s="3" t="s">
@@ -15652,76 +15654,70 @@
       </c>
       <c r="D330" s="3"/>
       <c r="E330" s="3" t="s">
-        <v>1862</v>
+        <v>1936</v>
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I330" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B331" s="3"/>
       <c r="C331" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D331" s="3" t="s">
-        <v>1713</v>
-      </c>
+      <c r="D331" s="3"/>
       <c r="E331" s="3" t="s">
-        <v>1863</v>
+        <v>1325</v>
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>1434</v>
+        <v>1542</v>
       </c>
       <c r="B332" s="3"/>
       <c r="C332" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>1770</v>
-      </c>
+        <v>1622</v>
+      </c>
+      <c r="D332" s="3"/>
+      <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -15732,24 +15728,22 @@
       <c r="C333" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D333" s="3" t="s">
-        <v>1705</v>
-      </c>
+      <c r="D333" s="3"/>
       <c r="E333" s="3" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -15760,22 +15754,24 @@
       <c r="C334" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D334" s="3"/>
+      <c r="D334" s="3" t="s">
+        <v>1713</v>
+      </c>
       <c r="E334" s="3" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I334" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -15786,22 +15782,24 @@
       <c r="C335" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D335" s="3"/>
+      <c r="D335" s="3" t="s">
+        <v>1704</v>
+      </c>
       <c r="E335" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F335" s="3"/>
       <c r="G335" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="I335" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -15813,52 +15811,54 @@
         <v>1325</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>1719</v>
+        <v>1705</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="F336" s="3"/>
       <c r="G336" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B337" s="3"/>
       <c r="C337" s="3" t="s">
-        <v>1623</v>
+        <v>1325</v>
       </c>
       <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
+      <c r="E337" s="3" t="s">
+        <v>1865</v>
+      </c>
       <c r="F337" s="3"/>
       <c r="G337" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="I337" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>1543</v>
+        <v>1434</v>
       </c>
       <c r="B338" s="3"/>
       <c r="C338" s="3" t="s">
@@ -15866,53 +15866,57 @@
       </c>
       <c r="D338" s="3"/>
       <c r="E338" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F338" s="3"/>
       <c r="G338" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>1543</v>
+        <v>1434</v>
       </c>
       <c r="B339" s="3"/>
       <c r="C339" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>1866</v>
+      </c>
       <c r="F339" s="3"/>
       <c r="G339" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>1544</v>
+        <v>1435</v>
       </c>
       <c r="B340" s="3"/>
       <c r="C340" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -15921,18 +15925,18 @@
         <v>1342</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>1436</v>
+        <v>1543</v>
       </c>
       <c r="B341" s="3"/>
       <c r="C341" s="3" t="s">
@@ -15940,29 +15944,29 @@
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F341" s="3"/>
       <c r="G341" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I341" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B342" s="3"/>
       <c r="C342" s="3" t="s">
-        <v>1625</v>
+        <v>1979</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -15971,72 +15975,72 @@
         <v>1342</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B343" s="3"/>
       <c r="C343" s="3" t="s">
-        <v>1584</v>
+        <v>1624</v>
       </c>
       <c r="D343" s="3"/>
-      <c r="E343" s="3" t="s">
-        <v>1806</v>
-      </c>
+      <c r="E343" s="3"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="J343" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B344" s="3"/>
       <c r="C344" s="3" t="s">
-        <v>1626</v>
+        <v>1325</v>
       </c>
       <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
+      <c r="E344" s="3" t="s">
+        <v>1773</v>
+      </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B345" s="3"/>
       <c r="C345" s="3" t="s">
-        <v>1574</v>
+        <v>1625</v>
       </c>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -16045,48 +16049,48 @@
         <v>1342</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="B346" s="3"/>
       <c r="C346" s="3" t="s">
-        <v>1325</v>
+        <v>1584</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="3" t="s">
-        <v>1683</v>
+        <v>1806</v>
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="J346" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B347" s="3"/>
       <c r="C347" s="3" t="s">
-        <v>1653</v>
+        <v>1626</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -16095,39 +16099,37 @@
         <v>1342</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I347" s="3" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1438</v>
+        <v>1547</v>
       </c>
       <c r="B348" s="3"/>
       <c r="C348" s="3" t="s">
-        <v>1325</v>
+        <v>1574</v>
       </c>
       <c r="D348" s="3"/>
-      <c r="E348" s="3" t="s">
-        <v>1774</v>
-      </c>
+      <c r="E348" s="3"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="I348" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -16140,20 +16142,20 @@
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3" t="s">
-        <v>1809</v>
+        <v>1683</v>
       </c>
       <c r="F349" s="3"/>
       <c r="G349" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -16162,26 +16164,22 @@
       </c>
       <c r="B350" s="3"/>
       <c r="C350" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E350" s="3" t="s">
-        <v>1775</v>
-      </c>
+        <v>1653</v>
+      </c>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="I350" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -16192,24 +16190,22 @@
       <c r="C351" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D351" s="3" t="s">
-        <v>1724</v>
-      </c>
+      <c r="D351" s="3"/>
       <c r="E351" s="3" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -16222,20 +16218,20 @@
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="3" t="s">
-        <v>1937</v>
+        <v>1809</v>
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -16244,26 +16240,26 @@
       </c>
       <c r="B353" s="3"/>
       <c r="C353" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D353" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>1657</v>
+      </c>
       <c r="E353" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F353" s="3" t="s">
-        <v>1961</v>
-      </c>
+        <v>1775</v>
+      </c>
+      <c r="F353" s="3"/>
       <c r="G353" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -16274,22 +16270,24 @@
       <c r="C354" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D354" s="3"/>
+      <c r="D354" s="3" t="s">
+        <v>1724</v>
+      </c>
       <c r="E354" s="3" t="s">
-        <v>1938</v>
+        <v>1776</v>
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -16302,49 +16300,53 @@
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3" t="s">
-        <v>1777</v>
+        <v>1937</v>
       </c>
       <c r="F355" s="3"/>
       <c r="G355" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B356" s="3"/>
       <c r="C356" s="3" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
+      <c r="E356" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>1961</v>
+      </c>
       <c r="G356" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="I356" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="J356" s="3" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B357" s="3"/>
       <c r="C357" s="3" t="s">
@@ -16352,25 +16354,25 @@
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="3" t="s">
-        <v>1867</v>
+        <v>1938</v>
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="I357" s="3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1477</v>
+        <v>1438</v>
       </c>
       <c r="B358" s="3"/>
       <c r="C358" s="3" t="s">
@@ -16378,51 +16380,49 @@
       </c>
       <c r="D358" s="3"/>
       <c r="E358" s="3" t="s">
-        <v>1331</v>
+        <v>1777</v>
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>1317</v>
+        <v>1231</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B359" s="3"/>
       <c r="C359" s="3" t="s">
-        <v>1325</v>
+        <v>1574</v>
       </c>
       <c r="D359" s="3"/>
-      <c r="E359" s="3" t="s">
-        <v>1893</v>
-      </c>
+      <c r="E359" s="3"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B360" s="3"/>
       <c r="C360" s="3" t="s">
@@ -16430,73 +16430,77 @@
       </c>
       <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
-        <v>1778</v>
+        <v>1867</v>
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1548</v>
+        <v>1477</v>
       </c>
       <c r="B361" s="3"/>
       <c r="C361" s="3" t="s">
-        <v>1670</v>
+        <v>1325</v>
       </c>
       <c r="D361" s="3"/>
-      <c r="E361" s="3"/>
+      <c r="E361" s="3" t="s">
+        <v>1331</v>
+      </c>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>1236</v>
+        <v>1317</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B362" s="3"/>
       <c r="C362" s="3" t="s">
-        <v>1575</v>
+        <v>1325</v>
       </c>
       <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
+      <c r="E362" s="3" t="s">
+        <v>1893</v>
+      </c>
       <c r="F362" s="3"/>
       <c r="G362" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1561</v>
+        <v>1441</v>
       </c>
       <c r="B363" s="3"/>
       <c r="C363" s="3" t="s">
@@ -16504,55 +16508,53 @@
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
-        <v>1758</v>
+        <v>1778</v>
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1443</v>
+        <v>1548</v>
       </c>
       <c r="B364" s="3"/>
       <c r="C364" s="3" t="s">
-        <v>1325</v>
+        <v>1670</v>
       </c>
       <c r="D364" s="3"/>
-      <c r="E364" s="3" t="s">
-        <v>1894</v>
-      </c>
+      <c r="E364" s="3"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="I364" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B365" s="3"/>
       <c r="C365" s="3" t="s">
-        <v>1671</v>
+        <v>1575</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -16561,269 +16563,269 @@
         <v>1342</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1445</v>
+        <v>1561</v>
       </c>
       <c r="B366" s="3"/>
       <c r="C366" s="3" t="s">
-        <v>1972</v>
+        <v>1325</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>1968</v>
-      </c>
+        <v>1758</v>
+      </c>
+      <c r="F366" s="3"/>
       <c r="G366" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>1478</v>
+        <v>1443</v>
       </c>
       <c r="B367" s="3"/>
       <c r="C367" s="3" t="s">
-        <v>1618</v>
+        <v>1325</v>
       </c>
       <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
+      <c r="E367" s="3" t="s">
+        <v>1894</v>
+      </c>
       <c r="F367" s="3"/>
       <c r="G367" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="I367" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>1478</v>
+        <v>1444</v>
       </c>
       <c r="B368" s="3"/>
       <c r="C368" s="3" t="s">
-        <v>1325</v>
+        <v>1671</v>
       </c>
       <c r="D368" s="3"/>
-      <c r="E368" s="3" t="s">
-        <v>1332</v>
-      </c>
+      <c r="E368" s="3"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="J368" s="3" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B369" s="3"/>
       <c r="C369" s="3" t="s">
-        <v>1627</v>
+        <v>1972</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="3" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F369" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>1968</v>
+      </c>
       <c r="G369" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="J369" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1562</v>
+        <v>1478</v>
       </c>
       <c r="B370" s="3"/>
       <c r="C370" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E370" s="3" t="s">
-        <v>1939</v>
-      </c>
+        <v>1618</v>
+      </c>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="J370" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1447</v>
+        <v>1478</v>
       </c>
       <c r="B371" s="3"/>
       <c r="C371" s="3" t="s">
-        <v>1628</v>
+        <v>1325</v>
       </c>
       <c r="D371" s="3"/>
-      <c r="E371" s="3"/>
+      <c r="E371" s="3" t="s">
+        <v>1332</v>
+      </c>
       <c r="F371" s="3"/>
       <c r="G371" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="I371" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="J371" s="3" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B372" s="3"/>
       <c r="C372" s="3" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
+      <c r="E372" s="3" t="s">
+        <v>1895</v>
+      </c>
       <c r="F372" s="3"/>
       <c r="G372" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1448</v>
+        <v>1562</v>
       </c>
       <c r="B373" s="3"/>
       <c r="C373" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>1939</v>
+      </c>
       <c r="F373" s="3"/>
       <c r="G373" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="I373" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="J373" s="3" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B374" s="3"/>
       <c r="C374" s="3" t="s">
-        <v>1325</v>
+        <v>1628</v>
       </c>
       <c r="D374" s="3"/>
-      <c r="E374" s="3" t="s">
-        <v>1779</v>
-      </c>
+      <c r="E374" s="3"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="J374" s="3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B375" s="3"/>
       <c r="C375" s="3" t="s">
-        <v>1325</v>
+        <v>1629</v>
       </c>
       <c r="D375" s="3"/>
-      <c r="E375" s="3" t="s">
-        <v>1940</v>
-      </c>
+      <c r="E375" s="3"/>
       <c r="F375" s="3"/>
       <c r="G375" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="J375" s="3" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -16832,7 +16834,7 @@
       </c>
       <c r="B376" s="3"/>
       <c r="C376" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -16841,13 +16843,13 @@
         <v>1342</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="J376" s="3" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
@@ -16860,20 +16862,20 @@
       </c>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
-        <v>1333</v>
+        <v>1779</v>
       </c>
       <c r="F377" s="3"/>
       <c r="G377" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -16886,20 +16888,20 @@
       </c>
       <c r="D378" s="3"/>
       <c r="E378" s="3" t="s">
-        <v>1810</v>
+        <v>1940</v>
       </c>
       <c r="F378" s="3"/>
       <c r="G378" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
@@ -16908,108 +16910,100 @@
       </c>
       <c r="B379" s="3"/>
       <c r="C379" s="3" t="s">
-        <v>1325</v>
+        <v>1631</v>
       </c>
       <c r="D379" s="3"/>
-      <c r="E379" s="3" t="s">
-        <v>1868</v>
-      </c>
+      <c r="E379" s="3"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="I379" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>1549</v>
+        <v>1448</v>
       </c>
       <c r="B380" s="3"/>
       <c r="C380" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D380" s="3" t="s">
-        <v>1710</v>
-      </c>
+      <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
-        <v>1811</v>
+        <v>1333</v>
       </c>
       <c r="F380" s="3"/>
       <c r="G380" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>1549</v>
+        <v>1448</v>
       </c>
       <c r="B381" s="3"/>
       <c r="C381" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D381" s="3" t="s">
-        <v>1705</v>
-      </c>
+      <c r="D381" s="3"/>
       <c r="E381" s="3" t="s">
-        <v>1869</v>
+        <v>1810</v>
       </c>
       <c r="F381" s="3"/>
       <c r="G381" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>1549</v>
+        <v>1448</v>
       </c>
       <c r="B382" s="3"/>
       <c r="C382" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D382" s="3" t="s">
-        <v>1726</v>
-      </c>
+      <c r="D382" s="3"/>
       <c r="E382" s="3" t="s">
-        <v>1780</v>
+        <v>1868</v>
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="J382" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -17021,101 +17015,107 @@
         <v>1325</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1727</v>
+        <v>1710</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>1941</v>
+        <v>1811</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B384" s="3"/>
       <c r="C384" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D384" s="3"/>
+      <c r="D384" s="3" t="s">
+        <v>1705</v>
+      </c>
       <c r="E384" s="3" t="s">
-        <v>1812</v>
+        <v>1869</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B385" s="3"/>
       <c r="C385" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D385" s="3"/>
+      <c r="D385" s="3" t="s">
+        <v>1726</v>
+      </c>
       <c r="E385" s="3" t="s">
-        <v>1870</v>
+        <v>1780</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="I385" s="3" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B386" s="3"/>
       <c r="C386" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D386" s="3"/>
+      <c r="D386" s="3" t="s">
+        <v>1727</v>
+      </c>
       <c r="E386" s="3" t="s">
-        <v>1952</v>
+        <v>1941</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -17124,22 +17124,24 @@
       </c>
       <c r="B387" s="3"/>
       <c r="C387" s="3" t="s">
-        <v>1672</v>
+        <v>1325</v>
       </c>
       <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
+      <c r="E387" s="3" t="s">
+        <v>1812</v>
+      </c>
       <c r="F387" s="3"/>
       <c r="G387" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -17152,20 +17154,20 @@
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="3" t="s">
-        <v>1781</v>
+        <v>1870</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="I388" s="3" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -17178,77 +17180,75 @@
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="3" t="s">
-        <v>1782</v>
+        <v>1952</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>1328</v>
-      </c>
+        <v>1550</v>
+      </c>
+      <c r="B390" s="3"/>
       <c r="C390" s="3" t="s">
-        <v>1563</v>
+        <v>1672</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
-      <c r="F390" s="3" t="s">
-        <v>1969</v>
-      </c>
+      <c r="F390" s="3"/>
       <c r="G390" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="B391" s="3"/>
       <c r="C391" s="3" t="s">
-        <v>1576</v>
+        <v>1325</v>
       </c>
       <c r="D391" s="3"/>
-      <c r="E391" s="3"/>
+      <c r="E391" s="3" t="s">
+        <v>1781</v>
+      </c>
       <c r="F391" s="3"/>
       <c r="G391" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1451</v>
+        <v>1550</v>
       </c>
       <c r="B392" s="3"/>
       <c r="C392" s="3" t="s">
@@ -17256,53 +17256,57 @@
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
-        <v>1871</v>
+        <v>1782</v>
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B393" s="3"/>
+        <v>1449</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>1328</v>
+      </c>
       <c r="C393" s="3" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
+      <c r="F393" s="3" t="s">
+        <v>1969</v>
+      </c>
       <c r="G393" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B394" s="3"/>
       <c r="C394" s="3" t="s">
-        <v>1681</v>
+        <v>1576</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -17311,13 +17315,13 @@
         <v>1342</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -17326,22 +17330,24 @@
       </c>
       <c r="B395" s="3"/>
       <c r="C395" s="3" t="s">
-        <v>1673</v>
+        <v>1325</v>
       </c>
       <c r="D395" s="3"/>
-      <c r="E395" s="3"/>
+      <c r="E395" s="3" t="s">
+        <v>1871</v>
+      </c>
       <c r="F395" s="3"/>
       <c r="G395" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -17350,24 +17356,22 @@
       </c>
       <c r="B396" s="3"/>
       <c r="C396" s="3" t="s">
-        <v>1682</v>
+        <v>1576</v>
       </c>
       <c r="D396" s="3"/>
-      <c r="E396" s="3" t="s">
-        <v>1872</v>
-      </c>
+      <c r="E396" s="3"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="J396" s="3" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -17376,7 +17380,7 @@
       </c>
       <c r="B397" s="3"/>
       <c r="C397" s="3" t="s">
-        <v>1632</v>
+        <v>1681</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -17385,22 +17389,22 @@
         <v>1342</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="I397" s="3" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B398" s="3"/>
       <c r="C398" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -17409,48 +17413,48 @@
         <v>1342</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="I398" s="3" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="J398" s="3" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>1551</v>
+        <v>1451</v>
       </c>
       <c r="B399" s="3"/>
       <c r="C399" s="3" t="s">
-        <v>1325</v>
+        <v>1682</v>
       </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
-        <v>1820</v>
+        <v>1872</v>
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="I399" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>1551</v>
+        <v>1451</v>
       </c>
       <c r="B400" s="3"/>
       <c r="C400" s="3" t="s">
-        <v>1607</v>
+        <v>1632</v>
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -17459,22 +17463,22 @@
         <v>1342</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="J400" s="3" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B401" s="3"/>
       <c r="C401" s="3" t="s">
-        <v>1633</v>
+        <v>1674</v>
       </c>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -17483,18 +17487,18 @@
         <v>1342</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="J401" s="3" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>1453</v>
+        <v>1551</v>
       </c>
       <c r="B402" s="3"/>
       <c r="C402" s="3" t="s">
@@ -17502,55 +17506,53 @@
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
-        <v>1783</v>
+        <v>1820</v>
       </c>
       <c r="F402" s="3"/>
       <c r="G402" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="J402" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>1484</v>
+        <v>1551</v>
       </c>
       <c r="B403" s="3"/>
       <c r="C403" s="3" t="s">
-        <v>1325</v>
+        <v>1607</v>
       </c>
       <c r="D403" s="3"/>
-      <c r="E403" s="3" t="s">
-        <v>1878</v>
-      </c>
+      <c r="E403" s="3"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>1552</v>
+        <v>1453</v>
       </c>
       <c r="B404" s="3"/>
       <c r="C404" s="3" t="s">
-        <v>1575</v>
+        <v>1633</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -17559,46 +17561,44 @@
         <v>1342</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="I404" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>1553</v>
+        <v>1453</v>
       </c>
       <c r="B405" s="3"/>
       <c r="C405" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D405" s="3" t="s">
-        <v>1705</v>
-      </c>
+      <c r="D405" s="3"/>
       <c r="E405" s="3" t="s">
-        <v>1942</v>
+        <v>1783</v>
       </c>
       <c r="F405" s="3"/>
       <c r="G405" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="J405" s="3" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>1456</v>
+        <v>1484</v>
       </c>
       <c r="B406" s="3"/>
       <c r="C406" s="3" t="s">
@@ -17606,75 +17606,75 @@
       </c>
       <c r="D406" s="3"/>
       <c r="E406" s="3" t="s">
-        <v>1896</v>
+        <v>1878</v>
       </c>
       <c r="F406" s="3"/>
       <c r="G406" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="I406" s="3" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>1456</v>
+        <v>1552</v>
       </c>
       <c r="B407" s="3"/>
       <c r="C407" s="3" t="s">
-        <v>1325</v>
+        <v>1575</v>
       </c>
       <c r="D407" s="3"/>
-      <c r="E407" s="3" t="s">
-        <v>1784</v>
-      </c>
+      <c r="E407" s="3"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="J407" s="3" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>1554</v>
+        <v>1454</v>
       </c>
       <c r="B408" s="3"/>
       <c r="C408" s="3" t="s">
-        <v>1634</v>
+        <v>1325</v>
       </c>
       <c r="D408" s="3"/>
-      <c r="E408" s="3"/>
+      <c r="E408" s="3" t="s">
+        <v>1325</v>
+      </c>
       <c r="F408" s="3"/>
       <c r="G408" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>1283</v>
+        <v>944</v>
       </c>
       <c r="J408" s="3" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B409" s="3"/>
       <c r="C409" s="3" t="s">
@@ -17682,103 +17682,109 @@
       </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
-        <v>1873</v>
+        <v>1325</v>
       </c>
       <c r="F409" s="3"/>
       <c r="G409" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="I409" s="3" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B410" s="3"/>
       <c r="C410" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="D410" s="3"/>
+      <c r="D410" s="3" t="s">
+        <v>1705</v>
+      </c>
       <c r="E410" s="3" t="s">
-        <v>1773</v>
+        <v>1942</v>
       </c>
       <c r="F410" s="3"/>
       <c r="G410" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="I410" s="3" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="J410" s="3" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>1555</v>
+        <v>1456</v>
       </c>
       <c r="B411" s="3"/>
       <c r="C411" s="3" t="s">
-        <v>1635</v>
+        <v>1325</v>
       </c>
       <c r="D411" s="3"/>
-      <c r="E411" s="3"/>
+      <c r="E411" s="3" t="s">
+        <v>1896</v>
+      </c>
       <c r="F411" s="3"/>
       <c r="G411" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="I411" s="3" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>1556</v>
+        <v>1456</v>
       </c>
       <c r="B412" s="3"/>
       <c r="C412" s="3" t="s">
-        <v>1699</v>
+        <v>1325</v>
       </c>
       <c r="D412" s="3"/>
-      <c r="E412" s="3"/>
+      <c r="E412" s="3" t="s">
+        <v>1784</v>
+      </c>
       <c r="F412" s="3"/>
       <c r="G412" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>1459</v>
+        <v>1554</v>
       </c>
       <c r="B413" s="3"/>
       <c r="C413" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -17787,18 +17793,18 @@
         <v>1342</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="J413" s="3" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B414" s="3"/>
       <c r="C414" s="3" t="s">
@@ -17806,53 +17812,55 @@
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3" t="s">
-        <v>1785</v>
+        <v>1873</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>1459</v>
+        <v>1555</v>
       </c>
       <c r="B415" s="3"/>
       <c r="C415" s="3" t="s">
-        <v>1637</v>
+        <v>1325</v>
       </c>
       <c r="D415" s="3"/>
-      <c r="E415" s="3"/>
+      <c r="E415" s="3" t="s">
+        <v>1773</v>
+      </c>
       <c r="F415" s="3"/>
       <c r="G415" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>1324</v>
+        <v>821</v>
       </c>
       <c r="I415" s="3" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>1459</v>
+        <v>1555</v>
       </c>
       <c r="B416" s="3"/>
       <c r="C416" s="3" t="s">
-        <v>1566</v>
+        <v>1635</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -17861,22 +17869,22 @@
         <v>1342</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="I416" s="3" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>1459</v>
+        <v>1556</v>
       </c>
       <c r="B417" s="3"/>
       <c r="C417" s="3" t="s">
-        <v>1675</v>
+        <v>1699</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -17885,22 +17893,24 @@
         <v>1342</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="I417" s="3" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="J417" s="3" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B418" s="3"/>
+        <v>1458</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>1334</v>
+      </c>
       <c r="C418" s="3" t="s">
-        <v>1638</v>
+        <v>1325</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -17909,22 +17919,22 @@
         <v>1342</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="I418" s="3" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="J418" s="3" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B419" s="3"/>
       <c r="C419" s="3" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -17933,46 +17943,48 @@
         <v>1342</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="I419" s="3" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>1557</v>
+        <v>1459</v>
       </c>
       <c r="B420" s="3"/>
       <c r="C420" s="3" t="s">
-        <v>1640</v>
+        <v>1325</v>
       </c>
       <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
+      <c r="E420" s="3" t="s">
+        <v>1785</v>
+      </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="I420" s="3" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="J420" s="3" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B421" s="3"/>
       <c r="C421" s="3" t="s">
-        <v>1700</v>
+        <v>1637</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -17981,74 +17993,70 @@
         <v>1342</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>844</v>
+        <v>1324</v>
       </c>
       <c r="I421" s="3" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="J421" s="3" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B422" s="3"/>
       <c r="C422" s="3" t="s">
-        <v>1325</v>
+        <v>1566</v>
       </c>
       <c r="D422" s="3"/>
-      <c r="E422" s="3" t="s">
-        <v>1874</v>
-      </c>
+      <c r="E422" s="3"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="J422" s="3" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B423" s="3"/>
       <c r="C423" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D423" s="3"/>
-      <c r="E423" s="3" t="s">
-        <v>1978</v>
-      </c>
+      <c r="E423" s="3"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="I423" s="3" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="J423" s="3" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B424" s="3"/>
       <c r="C424" s="3" t="s">
-        <v>1664</v>
+        <v>1638</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -18057,22 +18065,22 @@
         <v>1342</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="J424" s="3" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B425" s="3"/>
       <c r="C425" s="3" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -18081,22 +18089,22 @@
         <v>1342</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="I425" s="3" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>1463</v>
+        <v>1557</v>
       </c>
       <c r="B426" s="3"/>
       <c r="C426" s="3" t="s">
-        <v>1685</v>
+        <v>1640</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -18105,22 +18113,22 @@
         <v>1342</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="B427" s="3"/>
       <c r="C427" s="3" t="s">
-        <v>1642</v>
+        <v>1700</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -18129,18 +18137,18 @@
         <v>1342</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B428" s="3"/>
       <c r="C428" s="3" t="s">
@@ -18148,157 +18156,147 @@
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F428" s="3"/>
       <c r="G428" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B429" s="3"/>
       <c r="C429" s="3" t="s">
-        <v>1325</v>
+        <v>1676</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
-        <v>1786</v>
+        <v>1978</v>
       </c>
       <c r="F429" s="3"/>
       <c r="G429" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="I429" s="3" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="J429" s="3" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B430" s="3"/>
       <c r="C430" s="3" t="s">
-        <v>1643</v>
+        <v>1664</v>
       </c>
       <c r="D430" s="3"/>
-      <c r="E430" s="3" t="s">
-        <v>1787</v>
-      </c>
+      <c r="E430" s="3"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="J430" s="3" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B431" s="3"/>
       <c r="C431" s="3" t="s">
-        <v>1568</v>
+        <v>1641</v>
       </c>
       <c r="D431" s="3"/>
-      <c r="E431" s="3" t="s">
-        <v>1876</v>
-      </c>
+      <c r="E431" s="3"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="I431" s="3" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B432" s="3"/>
       <c r="C432" s="3" t="s">
-        <v>1611</v>
+        <v>1685</v>
       </c>
       <c r="D432" s="3"/>
-      <c r="E432" s="3" t="s">
-        <v>1788</v>
-      </c>
+      <c r="E432" s="3"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B433" s="3"/>
       <c r="C433" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E433" s="3" t="s">
-        <v>1789</v>
-      </c>
+        <v>1642</v>
+      </c>
+      <c r="D433" s="3"/>
+      <c r="E433" s="3"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>1340</v>
+        <v>856</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
       <c r="B434" s="3"/>
       <c r="C434" s="3" t="s">
@@ -18306,155 +18304,157 @@
       </c>
       <c r="D434" s="3"/>
       <c r="E434" s="3" t="s">
-        <v>1335</v>
+        <v>1875</v>
       </c>
       <c r="F434" s="3"/>
       <c r="G434" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>1558</v>
+        <v>1465</v>
       </c>
       <c r="B435" s="3"/>
       <c r="C435" s="3" t="s">
-        <v>1575</v>
+        <v>1325</v>
       </c>
       <c r="D435" s="3"/>
-      <c r="E435" s="3"/>
-      <c r="F435" s="3" t="s">
-        <v>1967</v>
-      </c>
+      <c r="E435" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F435" s="3"/>
       <c r="G435" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>1558</v>
+        <v>1465</v>
       </c>
       <c r="B436" s="3"/>
       <c r="C436" s="3" t="s">
-        <v>1325</v>
+        <v>1643</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
-        <v>1781</v>
+        <v>1787</v>
       </c>
       <c r="F436" s="3"/>
       <c r="G436" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="I436" s="3" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>1327</v>
-      </c>
+        <v>1465</v>
+      </c>
+      <c r="B437" s="3"/>
       <c r="C437" s="3" t="s">
-        <v>1325</v>
+        <v>1568</v>
       </c>
       <c r="D437" s="3"/>
-      <c r="E437" s="3"/>
-      <c r="F437" s="3" t="s">
-        <v>1977</v>
-      </c>
+      <c r="E437" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F437" s="3"/>
       <c r="G437" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="I437" s="3" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="J437" s="3" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B438" s="3"/>
       <c r="C438" s="3" t="s">
-        <v>1325</v>
+        <v>1611</v>
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
-        <v>1943</v>
+        <v>1788</v>
       </c>
       <c r="F438" s="3"/>
       <c r="G438" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="J438" s="3" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>1559</v>
+        <v>1466</v>
       </c>
       <c r="B439" s="3"/>
       <c r="C439" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D439" s="3"/>
-      <c r="E439" s="3"/>
+        <v>1325</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>1789</v>
+      </c>
       <c r="F439" s="3"/>
       <c r="G439" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>879</v>
+        <v>1340</v>
       </c>
       <c r="I439" s="3" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="J439" s="3" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>1454</v>
+        <v>1479</v>
       </c>
       <c r="B440" s="3"/>
       <c r="C440" s="3" t="s">
@@ -18462,51 +18462,51 @@
       </c>
       <c r="D440" s="3"/>
       <c r="E440" s="3" t="s">
-        <v>1325</v>
+        <v>1335</v>
       </c>
       <c r="F440" s="3"/>
       <c r="G440" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>807</v>
+        <v>869</v>
       </c>
       <c r="I440" s="3" t="s">
-        <v>944</v>
+        <v>1310</v>
       </c>
       <c r="J440" s="3" t="s">
-        <v>808</v>
+        <v>870</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>1455</v>
+        <v>1558</v>
       </c>
       <c r="B441" s="3"/>
       <c r="C441" s="3" t="s">
-        <v>1325</v>
+        <v>1575</v>
       </c>
       <c r="D441" s="3"/>
-      <c r="E441" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F441" s="3"/>
+      <c r="E441" s="3"/>
+      <c r="F441" s="3" t="s">
+        <v>1967</v>
+      </c>
       <c r="G441" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>809</v>
+        <v>871</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>1279</v>
+        <v>1311</v>
       </c>
       <c r="J441" s="3" t="s">
-        <v>810</v>
+        <v>872</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>1433</v>
+        <v>1558</v>
       </c>
       <c r="B442" s="3"/>
       <c r="C442" s="3" t="s">
@@ -18514,51 +18514,53 @@
       </c>
       <c r="D442" s="3"/>
       <c r="E442" s="3" t="s">
-        <v>1325</v>
+        <v>1781</v>
       </c>
       <c r="F442" s="3"/>
       <c r="G442" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>653</v>
+        <v>873</v>
       </c>
       <c r="I442" s="3" t="s">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>654</v>
+        <v>874</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B443" s="3"/>
+        <v>1467</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1327</v>
+      </c>
       <c r="C443" s="3" t="s">
         <v>1325</v>
       </c>
       <c r="D443" s="3"/>
-      <c r="E443" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F443" s="3"/>
+      <c r="E443" s="3"/>
+      <c r="F443" s="3" t="s">
+        <v>1977</v>
+      </c>
       <c r="G443" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>497</v>
+        <v>875</v>
       </c>
       <c r="I443" s="3" t="s">
-        <v>1126</v>
+        <v>1313</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>498</v>
+        <v>876</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>1391</v>
+        <v>1468</v>
       </c>
       <c r="B444" s="3"/>
       <c r="C444" s="3" t="s">
@@ -18566,31 +18568,29 @@
       </c>
       <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
-        <v>1325</v>
+        <v>1943</v>
       </c>
       <c r="F444" s="3"/>
       <c r="G444" s="3" t="s">
         <v>1342</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>314</v>
+        <v>877</v>
       </c>
       <c r="I444" s="3" t="s">
-        <v>1036</v>
+        <v>1314</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>315</v>
+        <v>878</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B445" s="3" t="s">
-        <v>1334</v>
-      </c>
+        <v>1559</v>
+      </c>
+      <c r="B445" s="3"/>
       <c r="C445" s="3" t="s">
-        <v>1325</v>
+        <v>1677</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -18599,13 +18599,13 @@
         <v>1342</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>827</v>
+        <v>879</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>1288</v>
+        <v>1315</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>828</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -37,11 +37,17 @@
   <connection id="6" name="schema5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Google Диск\WP\Bg Highlight Names\schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="7" name="schema6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Google Диск\WP\Bg Highlight Names\bg-highlight-names\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" name="schema7" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Google Диск\WP\Bg Highlight Names\bg-highlight-names\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="2042">
   <si>
     <t>http://azbyka.ru/otechnik/Serafim_Sobolev/</t>
   </si>
@@ -6270,12 +6276,15 @@
   <si>
     <t>Фотикийск$$%</t>
   </si>
+  <si>
+    <t>Библиотека Святых отцов и церковных писателей</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6351,6 +6360,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF805536"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6415,7 +6432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6447,8 +6464,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6456,6 +6471,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6791,6 +6811,7 @@
       <xsd:element nillable="true" name="HighlightNames">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="about" form="unqualified"/>
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="person" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
@@ -6812,48 +6833,48 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="HighlightNames_карта" RootElement="HighlightNames" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="8" Name="HighlightNames_карта" RootElement="HighlightNames" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K455" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" connectionId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K455" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" connectionId="8">
   <autoFilter ref="A1:K455"/>
   <sortState ref="A2:K455">
     <sortCondition ref="K1:K455"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="name" name="name" dataDxfId="10">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/name" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="num" name="num" dataDxfId="9">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/num" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/num" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="nick" name="nick" dataDxfId="8">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/nick" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/nick" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="middlename" name="middlename" dataDxfId="7">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/middlename" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/middlename" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="surname" name="surname" dataDxfId="6">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/surname" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/surname" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="curacy" name="curacy" dataDxfId="5">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/curacy" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/curacy" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="sex" name="sex" dataDxfId="4">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/sex" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/sex" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="discription" name="discription" dataDxfId="3">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/discription" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/discription" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="lifedates" name="lifedates" dataDxfId="2">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/lifedates" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/lifedates" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="link" name="link" dataDxfId="1">
-      <xmlColumnPr mapId="6" xpath="/HighlightNames/person/link" xmlDataType="string"/>
+      <xmlColumnPr mapId="8" xpath="/HighlightNames/person/link" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="12" name="sort" dataDxfId="0">
       <calculatedColumnFormula>IF(ISBLANK(Таблица1[[#This Row],[middlename]]), 10000,0)+IF(ISBLANK(Таблица1[[#This Row],[nick]]), 1000,0)+IF(ISBLANK(Таблица1[[#This Row],[surname]]), 100,0)+IF(ISBLANK(Таблица1[[#This Row],[curacy]]), 10,0)+IF(ISBLANK(Таблица1[[#This Row],[num]]), 1,0)</calculatedColumnFormula>
@@ -6861,6 +6882,16 @@
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
+</file>
+
+<file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
+<singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <singleXmlCell id="3" r="M1" connectionId="8">
+    <xmlCellPr id="1" uniqueName="about">
+      <xmlPr mapId="8" xpath="/HighlightNames/about" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+</singleXmlCells>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7216,7 +7247,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7316,32 +7347,32 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>1240</v>
       </c>
     </row>
@@ -7382,10 +7413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K456"/>
+  <dimension ref="A1:M456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7400,10 +7431,13 @@
     <col min="8" max="8" width="74.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="59.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="61.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>566</v>
       </c>
@@ -7434,11 +7468,14 @@
       <c r="J1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="22" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1257</v>
       </c>
@@ -7462,7 +7499,7 @@
       <c r="I2" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="21" t="s">
         <v>1262</v>
       </c>
       <c r="K2" s="9">
@@ -7470,7 +7507,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>679</v>
       </c>
@@ -7500,7 +7537,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>746</v>
       </c>
@@ -7530,7 +7567,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>794</v>
       </c>
@@ -7560,7 +7597,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>807</v>
       </c>
@@ -7590,7 +7627,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>750</v>
       </c>
@@ -7620,7 +7657,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>662</v>
       </c>
@@ -7650,7 +7687,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>785</v>
       </c>
@@ -7680,7 +7717,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>756</v>
       </c>
@@ -7710,7 +7747,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>794</v>
       </c>
@@ -7740,7 +7777,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>805</v>
       </c>
@@ -7770,7 +7807,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>668</v>
       </c>
@@ -7792,7 +7829,7 @@
       <c r="I13" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="21" t="s">
         <v>1248</v>
       </c>
       <c r="K13" s="9">
@@ -7800,7 +7837,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>785</v>
       </c>
@@ -7830,7 +7867,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>641</v>
       </c>
@@ -7860,7 +7897,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>642</v>
       </c>
@@ -8075,7 +8112,7 @@
         <v>645</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="3" t="s">
         <v>902</v>
       </c>
@@ -9084,7 +9121,7 @@
       <c r="I56" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="21" t="s">
         <v>1256</v>
       </c>
       <c r="K56" s="9">
@@ -14927,7 +14964,7 @@
         <v>613</v>
       </c>
       <c r="B261" s="9"/>
-      <c r="C261" s="18" t="s">
+      <c r="C261" s="9" t="s">
         <v>822</v>
       </c>
       <c r="D261" s="9"/>
@@ -15504,7 +15541,7 @@
       <c r="I281" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="J281" t="s">
+      <c r="J281" s="21" t="s">
         <v>1268</v>
       </c>
       <c r="K281" s="9">
@@ -15534,7 +15571,7 @@
       <c r="I282" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="J282" t="s">
+      <c r="J282" s="21" t="s">
         <v>1252</v>
       </c>
       <c r="K282" s="9">
@@ -15564,7 +15601,7 @@
       <c r="I283" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="J283" t="s">
+      <c r="J283" s="21" t="s">
         <v>1244</v>
       </c>
       <c r="K283" s="9">
@@ -15594,7 +15631,7 @@
       <c r="I284" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="J284" t="s">
+      <c r="J284" s="21" t="s">
         <v>1284</v>
       </c>
       <c r="K284" s="9">
@@ -15624,7 +15661,7 @@
       <c r="I285" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="J285" t="s">
+      <c r="J285" s="21" t="s">
         <v>1279</v>
       </c>
       <c r="K285" s="9">
@@ -18728,13 +18765,13 @@
       <c r="G396" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H396" t="s">
+      <c r="H396" s="21" t="s">
         <v>1271</v>
       </c>
       <c r="I396" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="J396" t="s">
+      <c r="J396" s="21" t="s">
         <v>1274</v>
       </c>
       <c r="K396" s="9">
@@ -20205,7 +20242,7 @@
         <v>1220</v>
       </c>
       <c r="B449" s="3"/>
-      <c r="C449" s="17"/>
+      <c r="C449" s="20"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3" t="s">
@@ -20402,7 +20439,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>